--- a/medicine/Enfance/Myriam_Picard/Myriam_Picard.xlsx
+++ b/medicine/Enfance/Myriam_Picard/Myriam_Picard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myriam Picard  est un écrivain et conteuse en littérature jeunesse et vit en Franche-Comté où elle est bibliothécaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mariée, mère de trois enfants, depuis toute petite elle invente des histoires et des poésies...son entourage est sa principale source d'inspiration avec, en plus une touche d'humour.
 Elle est référencée sur le site de La Charte des auteurs et des illustrateurs jeunesse.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2001 : C'est quand qu'on est adulte ? : illustrations de Jérôme Peyrat - Éditions du Bastberg
 2002 : Nous, les enfants :  illustrations de Jérôme Peyrat - Éditions du Bastberg
